--- a/biology/Zoologie/Guiyu_(poisson)/Guiyu_(poisson).xlsx
+++ b/biology/Zoologie/Guiyu_(poisson)/Guiyu_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Guiyu oneiros
 Guiyu  est un genre éteint de poissons osseux. Il n'est connu que par une seule espèce Guiyu oneiros.
-Guiyu oneiros vivait en Chine à la fin du Silurien il y a environ 420 Ma (millions d'années), c'est l'un des plus anciens poissons connus[2].
+Guiyu oneiros vivait en Chine à la fin du Silurien il y a environ 420 Ma (millions d'années), c'est l'un des plus anciens poissons connus.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guiyu vient du mandarin 鬼鱼, guǐyú, signifiant « poisson fantôme », et oneiros qui provient du grec ὄνειρος, signifiant « rêve ».
 </t>
@@ -545,9 +559,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fossile a été découvert à Kuanti dans la province du Yunnan, au sud-est de la Chine. Son squelette est bien préservé[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fossile a été découvert à Kuanti dans la province du Yunnan, au sud-est de la Chine. Son squelette est bien préservé.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fossile mesure 26 cm de long et 11 cm de large. Il a les caractéristiques des actinoptérygiens et des sarcoptérygiens, bien que l'étude de toutes ses caractéristiques le range plutôt auprès des sarcoptérygiens[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fossile mesure 26 cm de long et 11 cm de large. Il a les caractéristiques des actinoptérygiens et des sarcoptérygiens, bien que l'étude de toutes ses caractéristiques le range plutôt auprès des sarcoptérygiens.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Position taxinomique de Guiyu dans le cladogramme des sarcopterygiens réalisé par Yu et al. en 2010[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Position taxinomique de Guiyu dans le cladogramme des sarcopterygiens réalisé par Yu et al. en 2010 :
 </t>
         </is>
       </c>
